--- a/medicine/Psychotrope/Louis_d'Ussieux/Louis_d'Ussieux.xlsx
+++ b/medicine/Psychotrope/Louis_d'Ussieux/Louis_d'Ussieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_d%27Ussieux</t>
+          <t>Louis_d'Ussieux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis d'Ussieux, en réalité Louis Dussieux, né à Angoulême le 30 mars 1744[1] et mort au château des Vaux[2] le 21 août 1805, est un écrivain, historien, journaliste, traducteur et agronome français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis d'Ussieux, en réalité Louis Dussieux, né à Angoulême le 30 mars 1744 et mort au château des Vaux le 21 août 1805, est un écrivain, historien, journaliste, traducteur et agronome français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_d%27Ussieux</t>
+          <t>Louis_d'Ussieux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis d'Ussieux est le fils d'André Dussieux, sieur de La Moradie, et de Marie de Borie.
 Il est en 1777 un des fondateurs et rédacteur du Journal de Paris, collaborateur à la Collection universelle des mémoires particuliers relatifs à l'histoire de France.
 Dès 1794, il propage au château des Vaux et à Pontgouin la culture des betteraves, carottes et blé de Turquie, sur les recommandations de Pierre Louis Bentabole.
 Girondin, il fut proscrit, avant d'être élu en 1795 membre du Conseil des Anciens jusqu'en 1799.
-À sa mort, sa veuve fait vendre le troupeau de moutons qu'il élevait[3]. Elle souhaite aussi vendre le domaine et château des Vaux, soit 310 hectares, situés sur les communes de Saint-Maurice-Saint-Germain, Pontgouin, Belhomert-Guéhouville et Digny. Elle est autorisée par le Tribunal de première instance de l'arrondissement de Chartres le 30 août 1806 à faire une vente aux enchères en raison d'héritiers mineurs, au prix de 181.880 francs. Mais après avoir fait apposer des affiches notamment à Chartres, au Mans, à Orléans et à Paris, aucun acheteur ne se présente[4].
+À sa mort, sa veuve fait vendre le troupeau de moutons qu'il élevait. Elle souhaite aussi vendre le domaine et château des Vaux, soit 310 hectares, situés sur les communes de Saint-Maurice-Saint-Germain, Pontgouin, Belhomert-Guéhouville et Digny. Elle est autorisée par le Tribunal de première instance de l'arrondissement de Chartres le 30 août 1806 à faire une vente aux enchères en raison d'héritiers mineurs, au prix de 181.880 francs. Mais après avoir fait apposer des affiches notamment à Chartres, au Mans, à Orléans et à Paris, aucun acheteur ne se présente.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_d%27Ussieux</t>
+          <t>Louis_d'Ussieux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,16 +560,18 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Veuf en premières noces, il a un fils de sa première union : Auguste Marie Tobie Dussieux, mort jeune à Paris à l'hospice des incurables[4].
-En 1784, il épouse en secondes noces Marie Henriette Alexandrine Bellier du Chesnay, fille de d'Alexandre-Claude Bellier Du Chesnay[5], duquel mariage sont issus cinq enfants[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veuf en premières noces, il a un fils de sa première union : Auguste Marie Tobie Dussieux, mort jeune à Paris à l'hospice des incurables.
+En 1784, il épouse en secondes noces Marie Henriette Alexandrine Bellier du Chesnay, fille de d'Alexandre-Claude Bellier Du Chesnay, duquel mariage sont issus cinq enfants :
 Louise Dussieux, épouse de Philippe-Alexandre Le Brun de Charmettes.
 Charles Henri Xavier Dussieux, chevau-léger de la Garde royale
 Louis Alexandre Ernule Dussieux
 Pierre Henri Dussieux
 Marie Adolphe Dussieux
-Au décès de leur mère survenu à Chartres le 31 octobre 1816, les deux derniers enfants, mineurs, ont pour tuteur l'abbé Claude-Adrien Jumentier[7].
+Au décès de leur mère survenu à Chartres le 31 octobre 1816, les deux derniers enfants, mineurs, ont pour tuteur l'abbé Claude-Adrien Jumentier.
 </t>
         </is>
       </c>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Louis_d%27Ussieux</t>
+          <t>Louis_d'Ussieux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Histoire abrégée de la découverte et de la conquête des Indes par les Portugais, 1770
 Le Décaméron français, 2 vol., 1772-1774 Texte en ligne 1 2
